--- a/medicine/Psychotrope/Château_Poujeaux/Château_Poujeaux.xlsx
+++ b/medicine/Psychotrope/Château_Poujeaux/Château_Poujeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Poujeaux</t>
+          <t>Château_Poujeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Poujeaux est un domaine viticole de 70 ha d'un seul tenant dans le Médoc, situé à Moulis-en-Médoc en Gironde. C'est une AOC Moulis-en-Médoc qui fait partie des crus bourgeois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Poujeaux</t>
+          <t>Château_Poujeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIe siècle, le château appartenait à l'actuel Château Latour. Il était connu sous le nom de La Salle de Poujeaux.
 En 1921, le château est acquis par François Theil. Il est vendu en 2008 à M. Philippe Cuvelier qui bénéficie des conseils de l'œnologue Stéphane Derenoncourt.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Poujeaux</t>
+          <t>Château_Poujeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cœur de la commune de Moulis-en-Médoc se dresse la colline appelée Grand Poujeaux. Il s'agit d'une croupe graveleuse de plusieurs mètres d'épaisseur et qui date de la glaciation de Günz.
 Sur un sol fait à 80 % de graves sur substrat calcaire à astéries, et 20 % argilo-calcaire, le vignoble est planté en cabernet sauvignon à 50 %, merlot à 40 %, petit verdot à 5 %, et cabernet franc à 5 %. Les raisins proviennent de vignes, dont la moyenne d'âge est de 30 ans.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Poujeaux</t>
+          <t>Château_Poujeaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuvaison, de 20 à 25 jours, est menée dans des cuves en béton et inox avec des remontages réguliers. La fermentation malolactique a lieu dans des barriques en chêne. Après assemblage, le vin repose 12 mois en fûts de chêne, dont 50 % renouvelés annuellement.
 Le second vin du château s'appelle La Salle de Poujeaux.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Poujeaux</t>
+          <t>Château_Poujeaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel de Poujeaux.
  Portail de la vigne et du vin   Portail de la Gironde                    </t>
